--- a/ARMV4T指令.xlsx
+++ b/ARMV4T指令.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55C973-C8D9-4E81-8C70-EA4FBCE178CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +25,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operand 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL/MLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMULL/UMLAL/ SMULL/SMLAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdHi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source operand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSR(flag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment field (ignored by Processor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDR/STR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,11 +194,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,20 +498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="33" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="33" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -473,8 +613,670 @@
       </c>
       <c r="AH1" s="1"/>
     </row>
+    <row r="2" spans="1:34" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="V7:AG7"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="V2:AG2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B2:E13"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="J10:AG10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ARMV4T指令.xlsx
+++ b/ARMV4T指令.xlsx
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,6 +523,107 @@
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ARMV4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据处理指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存取指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制流指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协处理器指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑运算指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据交换指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支跳转指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常产生指令
+(软件中断指令)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD、ADC、SUB、SBC、RSB、RSC、MUL、MLA、UMULL、UMLAL、SMULL、SMLAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND、ORR、EOR、BIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMP、CMN、TEQ、TST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDR、LDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDP、MCR、MRC、LDC、STC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、BL、BX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR、STM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDR、LDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -630,13 +727,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,45 +904,123 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,15 +1303,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AG2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
     <col min="2" max="33" width="2.75" style="3" customWidth="1"/>
     <col min="34" max="16384" width="9" style="3"/>
   </cols>
@@ -1091,14 +1420,14 @@
     </row>
     <row r="2" spans="1:34" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
@@ -1108,84 +1437,84 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1205,177 +1534,177 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+    </row>
+    <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
@@ -1394,22 +1723,22 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
+      <c r="R7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
         <v>0</v>
       </c>
       <c r="Z7" s="2">
@@ -1439,30 +1768,30 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
@@ -1517,21 +1846,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="AD8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1539,151 +1868,151 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2">
         <v>0</v>
       </c>
@@ -1696,397 +2025,397 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1</v>
-      </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1</v>
-      </c>
-      <c r="X12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6" t="s">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-    </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
+      <c r="AB17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
     </row>
     <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2097,377 +2426,377 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6" t="s">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="s">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6" t="s">
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="s">
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6" t="s">
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6" t="s">
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -2477,41 +2806,41 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
+      <c r="I26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
+      <c r="AE26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2">
         <v>31</v>
@@ -2612,71 +2941,369 @@
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="23"/>
+    </row>
+    <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="26"/>
+    </row>
+    <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="26"/>
+    </row>
+    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="26"/>
+    </row>
+    <row r="35" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="26"/>
+    </row>
+    <row r="36" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="26"/>
+    </row>
+    <row r="37" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="26"/>
+    </row>
+    <row r="38" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="26"/>
+    </row>
+    <row r="39" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="I26:AC26"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:AG19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="B2:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
+  <mergeCells count="77">
+    <mergeCell ref="P35:Y35"/>
+    <mergeCell ref="P36:Y36"/>
+    <mergeCell ref="P37:Y37"/>
+    <mergeCell ref="P38:Y38"/>
+    <mergeCell ref="J39:Y39"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="P30:Y30"/>
+    <mergeCell ref="P31:Y31"/>
+    <mergeCell ref="P32:Y32"/>
+    <mergeCell ref="P33:Y33"/>
+    <mergeCell ref="P34:Y34"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:I33"/>
+    <mergeCell ref="B34:I36"/>
+    <mergeCell ref="B37:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:Q2"/>
@@ -2693,15 +3320,35 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="B2:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
     <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:AG19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="I26:AC26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
